--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br30.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br30.xlsx
@@ -148,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,6 +242,41 @@
       </c>
       <c r="C8" s="4" t="n">
         <v>4419242</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>46752</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>47118</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>47483</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br30.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br30.xlsx
@@ -35,11 +35,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +64,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -110,7 +123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -123,12 +136,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,6 +169,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -151,7 +240,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -168,115 +257,157 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>43100</v>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="A2" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>255.06</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>412770</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>43465</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>259.33</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>720236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>43830</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>266.04</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>1330163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>267.16</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>2430153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>44561</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>264.94</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>3296386</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>291.4</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>4141401</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>45291</v>
+      <c r="A8" s="0" t="n">
+        <v>2023</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>301.8</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>4419242</v>
+        <v>293.79</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4986399</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>45657</v>
+      <c r="A9" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>296.65</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5831395</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>46022</v>
+      <c r="A10" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>6676391</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>46387</v>
+      <c r="A11" s="0" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>302.35</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>7521387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>46752</v>
+      <c r="A12" s="0" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>305.2</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>8366383</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>47118</v>
+      <c r="A13" s="0" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>308.06</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>9211379</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>47483</v>
+      <c r="A14" s="0" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>310.91</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>10056370</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>47848</v>
+      <c r="A15" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>313.76</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>10901370</v>
       </c>
     </row>
   </sheetData>

--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br30.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br30.xlsx
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -69,13 +69,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -123,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,6 +129,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,20 +141,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,10 +222,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,156 +242,189 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>70939</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>141617</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>257.39</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>200740</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>255.06</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C5" s="3" t="n">
         <v>412770</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>259.33</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>720236</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>266.04</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>1330163</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>267.16</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>2430153</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>264.94</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>3296386</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>291.4</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>4141401</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>293.79</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>4986399</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>2024</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B12" s="6" t="n">
         <v>296.65</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C12" s="6" t="n">
         <v>5831395</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>2025</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B13" s="6" t="n">
         <v>299.5</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C13" s="6" t="n">
         <v>6676391</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>2026</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B14" s="6" t="n">
         <v>302.35</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>7521387</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>2027</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B15" s="6" t="n">
         <v>305.2</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>8366383</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>2028</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B16" s="6" t="n">
         <v>308.06</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C16" s="6" t="n">
         <v>9211379</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>2029</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B17" s="6" t="n">
         <v>310.91</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C17" s="6" t="n">
         <v>10056370</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>2030</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B18" s="6" t="n">
         <v>313.76</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>10901370</v>
       </c>
     </row>
